--- a/SOFTWARE/Thermal/1D forloops/Sensitivity 2.0/Sensitivity analysis.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Sensitivity 2.0/Sensitivity analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="120" windowWidth="13380" windowHeight="3984"/>
+    <workbookView xWindow="192" yWindow="120" windowWidth="13380" windowHeight="3984" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="q_q0" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Lay 1</t>
   </si>
@@ -75,34 +75,79 @@
     <t>0.2540    0.2540    2.0828    0.0254    0.0254</t>
   </si>
   <si>
-    <t>0.2540    0.2540    4.2164    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>0.2540    0.2540    1.0668    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>0.2540    0.2540    1.6256    0.0254    0.0254</t>
-  </si>
-  <si>
     <t>0.2540    0.2540    1.9304    0.0254    0.0254</t>
   </si>
   <si>
-    <t>0.2540    0.2540    2.2352    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>0.2540    0.2540    2.4892    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>0.2540    0.2540    2.6924    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>0.2540    0.2540    2.8448    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>0.2540    0.2540    3.4036    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>0.2540    0.2540    3.8608    0.0254    0.0254</t>
+    <t>0.2540    0.2540    1.4224    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    2.3876    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    2.5400    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    2.7432    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    2.9972    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    3.3528    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    3.2004    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    3.9116    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    4.3688    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    4.7752    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>m/A [kg/m2]</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Lay1 Orbit</t>
+  </si>
+  <si>
+    <t>Lay2 Orbit</t>
+  </si>
+  <si>
+    <t>Lay3 Orbit</t>
+  </si>
+  <si>
+    <t>Lay1 Once</t>
+  </si>
+  <si>
+    <t>Lay2 Once</t>
+  </si>
+  <si>
+    <t>Lay3 Once</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    1.7780    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    2.3368    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    3.0988    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    4.5212    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>3.1115    3.1115    7.0104    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    1.4732    0.0254    0.0254</t>
   </si>
 </sst>
 </file>
@@ -443,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,11 +823,11 @@
         <v>0.25</v>
       </c>
       <c r="B30">
-        <v>1.6036999999999999</v>
+        <v>1.6341000000000001</v>
       </c>
       <c r="C30">
         <f>B30*PI()*36</f>
-        <v>181.37419698823021</v>
+        <v>184.81235598831893</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
@@ -793,11 +838,11 @@
         <v>0.5</v>
       </c>
       <c r="B31">
-        <v>1.6651</v>
+        <v>1.7896000000000001</v>
       </c>
       <c r="C31">
         <f t="shared" ref="C31:C41" si="2">B31*PI()*36</f>
-        <v>188.31837338972514</v>
+        <v>202.39899166311457</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
@@ -808,14 +853,14 @@
         <v>0.75</v>
       </c>
       <c r="B32">
-        <v>1.7265999999999999</v>
+        <v>1.9018999999999999</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>195.27385952477292</v>
+        <v>215.0998224430474</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -823,14 +868,14 @@
         <v>0.9</v>
       </c>
       <c r="B33">
-        <v>1.7601</v>
+        <v>1.9537</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>199.06262026500224</v>
+        <v>220.95826442346166</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -838,14 +883,14 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>1.7768999999999999</v>
+        <v>1.9796</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
-        <v>200.96265550189329</v>
+        <v>223.88748541366877</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -853,11 +898,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B35">
-        <v>1.7936000000000001</v>
+        <v>2.0141</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>202.8513810052315</v>
+        <v>227.7893434894273</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
@@ -868,11 +913,11 @@
         <v>1.25</v>
       </c>
       <c r="B36">
-        <v>1.8216000000000001</v>
+        <v>2.0573000000000001</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
-        <v>206.01810640005004</v>
+        <v>232.67514838429014</v>
       </c>
       <c r="E36" t="s">
         <v>24</v>
@@ -883,14 +928,14 @@
         <v>1.4</v>
       </c>
       <c r="B37">
-        <v>1.8439000000000001</v>
+        <v>2.0918000000000001</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
-        <v>208.54017698235194</v>
+        <f>B37*PI()*36</f>
+        <v>236.57700646004866</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,14 +943,14 @@
         <v>1.5</v>
       </c>
       <c r="B38">
-        <v>1.8607</v>
+        <v>2.1177999999999999</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
-        <v>210.44021221924299</v>
+        <f>B38*PI()*36</f>
+        <v>239.51753718380868</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -913,11 +958,11 @@
         <v>2</v>
       </c>
       <c r="B39">
-        <v>1.9221999999999999</v>
+        <v>2.2126999999999999</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
-        <v>217.3956983542908</v>
+        <v>250.25047432553285</v>
       </c>
       <c r="E39" t="s">
         <v>27</v>
@@ -928,11 +973,11 @@
         <v>2.5</v>
       </c>
       <c r="B40">
-        <v>1.9724999999999999</v>
+        <v>2.2905000000000002</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
-        <v>223.08449433141121</v>
+        <v>259.04944702970721</v>
       </c>
       <c r="E40" t="s">
         <v>28</v>
@@ -943,14 +988,14 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>2.0116000000000001</v>
+        <v>2.3595999999999999</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
-        <v>227.50660015060421</v>
+        <v>266.86447291477714</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -960,14 +1005,283 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>19.312999999999999</v>
+      </c>
+      <c r="M16">
+        <v>585.33839999999998</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>2.3163999999999998</v>
+      </c>
+      <c r="M17">
+        <v>157.66900000000001</v>
+      </c>
+      <c r="O17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <v>2.0746000000000002</v>
+      </c>
+      <c r="M18">
+        <v>250.88399999999999</v>
+      </c>
+      <c r="O18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>1.8758999999999999</v>
+      </c>
+      <c r="C19">
+        <v>354.37380000000002</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="M19">
+        <v>367.4248</v>
+      </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1.7982</v>
+      </c>
+      <c r="C20">
+        <v>489.08100000000002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>1.85</v>
+      </c>
+      <c r="M20">
+        <v>503.1739</v>
+      </c>
+      <c r="O20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/SOFTWARE/Thermal/1D forloops/Sensitivity 2.0/Sensitivity analysis.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Sensitivity 2.0/Sensitivity analysis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>Lay 1</t>
   </si>
@@ -148,6 +148,36 @@
   </si>
   <si>
     <t>0.2540    0.2540    1.4732    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    3.5560    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>2.6924    2.6924    9.9822    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    8.8392    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    9.8044    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>No Go</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540   10.0584    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540   10.6680    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540   11.4808    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540   12.4460    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540   11.1252    0.0254    0.0254</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1038,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,40 +1080,94 @@
       <c r="A2">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
       <c r="K2">
         <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
       <c r="K3">
         <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12</v>
       </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
       <c r="K4">
         <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15</v>
       </c>
+      <c r="B5">
+        <v>1.7342</v>
+      </c>
+      <c r="C5">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
       <c r="K5">
         <v>15</v>
+      </c>
+      <c r="L5">
+        <v>1.8794999999999999</v>
+      </c>
+      <c r="M5">
+        <v>355.0455</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18</v>
       </c>
+      <c r="B6">
+        <v>1.5889</v>
+      </c>
+      <c r="C6">
+        <v>432.15649999999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
       <c r="K6">
         <v>18</v>
+      </c>
+      <c r="L6">
+        <v>1.7733000000000001</v>
+      </c>
+      <c r="M6">
+        <v>482.31079999999997</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1116,40 +1200,94 @@
       <c r="A9">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
       <c r="K9">
         <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
       <c r="K10">
         <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
       <c r="K11">
         <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
+      <c r="B12">
+        <v>2.1772</v>
+      </c>
+      <c r="C12">
+        <v>411.2801</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
       <c r="K12">
         <v>15</v>
+      </c>
+      <c r="L12">
+        <v>2.3239999999999998</v>
+      </c>
+      <c r="M12">
+        <v>439.01350000000002</v>
+      </c>
+      <c r="O12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
+      <c r="B13">
+        <v>2.0131000000000001</v>
+      </c>
+      <c r="C13">
+        <v>547.52530000000002</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
       <c r="K13">
         <v>18</v>
+      </c>
+      <c r="L13">
+        <v>2.2204000000000002</v>
+      </c>
+      <c r="M13">
+        <v>603.8972</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1182,6 +1320,15 @@
       <c r="A16">
         <v>6</v>
       </c>
+      <c r="B16">
+        <v>17.387499999999999</v>
+      </c>
+      <c r="C16">
+        <v>526.97820000000002</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
       <c r="K16">
         <v>6</v>
       </c>
@@ -1199,6 +1346,15 @@
       <c r="A17">
         <v>9</v>
       </c>
+      <c r="B17">
+        <v>2.1522999999999999</v>
+      </c>
+      <c r="C17">
+        <v>146.50030000000001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
       <c r="K17">
         <v>9</v>
       </c>
@@ -1215,6 +1371,15 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
+      </c>
+      <c r="B18">
+        <v>2.1177999999999999</v>
+      </c>
+      <c r="C18">
+        <v>256.10590000000002</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
       </c>
       <c r="K18">
         <v>12</v>

--- a/SOFTWARE/Thermal/1D forloops/Sensitivity 2.0/Sensitivity analysis.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Sensitivity 2.0/Sensitivity analysis.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="120" windowWidth="13380" windowHeight="3984" activeTab="1"/>
+    <workbookView xWindow="192" yWindow="120" windowWidth="13380" windowHeight="3984" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="q_q0" sheetId="1" r:id="rId1"/>
-    <sheet name="A" sheetId="2" r:id="rId2"/>
-    <sheet name="t" sheetId="3" r:id="rId3"/>
+    <sheet name="rho" sheetId="3" r:id="rId2"/>
+    <sheet name="A" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>Lay 1</t>
   </si>
@@ -178,6 +178,24 @@
   </si>
   <si>
     <t>0.2540    0.2540   11.1252    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>m/A</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540   13.9192    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    2.6924    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    2.7940    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    2.9464    0.0254    0.0254</t>
   </si>
 </sst>
 </file>
@@ -519,7 +537,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,6 +1052,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.9</v>
+      </c>
+      <c r="B2">
+        <v>2.0415999999999999</v>
+      </c>
+      <c r="C2">
+        <v>246.89080000000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.9</v>
+      </c>
+      <c r="B12">
+        <v>2.0487000000000002</v>
+      </c>
+      <c r="C12">
+        <v>247.7509</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2.0228000000000002</v>
+      </c>
+      <c r="C13">
+        <v>244.61779999999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B14">
+        <v>2.0055000000000001</v>
+      </c>
+      <c r="C14">
+        <v>242.529</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
@@ -1449,34 +1587,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SOFTWARE/Thermal/1D forloops/Sensitivity 2.0/Sensitivity analysis.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Sensitivity 2.0/Sensitivity analysis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Lay 1</t>
   </si>
@@ -156,30 +156,9 @@
     <t>2.6924    2.6924    9.9822    0.0254    0.0254</t>
   </si>
   <si>
-    <t>0.2540    0.2540    8.8392    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>0.2540    0.2540    9.8044    0.0254    0.0254</t>
-  </si>
-  <si>
     <t>No Go</t>
   </si>
   <si>
-    <t>0.2540    0.2540   10.0584    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>0.2540    0.2540   10.6680    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>0.2540    0.2540   11.4808    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>0.2540    0.2540   12.4460    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>0.2540    0.2540   11.1252    0.0254    0.0254</t>
-  </si>
-  <si>
     <t>m/A</t>
   </si>
   <si>
@@ -196,6 +175,24 @@
   </si>
   <si>
     <t>0.2540    0.2540    2.9464    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    6.5532    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540    7.7724    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.3810    0.3810    7.5184    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>1.0922    1.0922    7.5692    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540   15.0876    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540   15.5956    0.0254    0.0254</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
@@ -1086,7 +1083,7 @@
         <v>246.89080000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1135,7 +1132,7 @@
         <v>247.7509</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1149,7 +1146,7 @@
         <v>244.61779999999999</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1163,7 +1160,7 @@
         <v>242.529</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1173,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,13 +1216,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K2">
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1233,13 +1230,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1247,13 +1244,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1261,25 +1258,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.7342</v>
+        <v>1.3653999999999999</v>
       </c>
       <c r="C5">
-        <v>327.60000000000002</v>
+        <v>257.93049999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5">
         <v>15</v>
       </c>
       <c r="L5">
-        <v>1.8794999999999999</v>
+        <v>2.3041999999999998</v>
       </c>
       <c r="M5">
-        <v>355.0455</v>
+        <v>435.27089999999998</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1287,25 +1284,25 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.5889</v>
+        <v>1.2313000000000001</v>
       </c>
       <c r="C6">
-        <v>432.15649999999999</v>
+        <v>334.88740000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K6">
         <v>18</v>
       </c>
       <c r="L6">
-        <v>1.7733000000000001</v>
+        <v>1.5553999999999999</v>
       </c>
       <c r="M6">
-        <v>482.31079999999997</v>
+        <v>423.03750000000002</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1338,94 +1335,58 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
       <c r="K9">
         <v>6</v>
-      </c>
-      <c r="L9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
       <c r="K10">
         <v>9</v>
-      </c>
-      <c r="L10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
       <c r="K11">
         <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>2.1772</v>
-      </c>
-      <c r="C12">
-        <v>411.2801</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
       <c r="K12">
         <v>15</v>
       </c>
       <c r="L12">
-        <v>2.3239999999999998</v>
+        <v>3.1617000000000002</v>
       </c>
       <c r="M12">
-        <v>439.01350000000002</v>
+        <v>597.25720000000001</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>2.0131000000000001</v>
-      </c>
-      <c r="C13">
-        <v>547.52530000000002</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
       <c r="K13">
         <v>18</v>
       </c>
       <c r="L13">
-        <v>2.2204000000000002</v>
+        <v>3.0752999999999999</v>
       </c>
       <c r="M13">
-        <v>603.8972</v>
+        <v>836.43100000000004</v>
       </c>
       <c r="O13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">

--- a/SOFTWARE/Thermal/1D forloops/Sensitivity 2.0/Sensitivity analysis.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Sensitivity 2.0/Sensitivity analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="120" windowWidth="13380" windowHeight="3984" activeTab="2"/>
+    <workbookView xWindow="192" yWindow="180" windowWidth="13380" windowHeight="3924" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="q_q0" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>Lay 1</t>
   </si>
@@ -183,16 +183,13 @@
     <t>0.2540    0.2540    7.7724    0.0254    0.0254</t>
   </si>
   <si>
-    <t>0.3810    0.3810    7.5184    0.0254    0.0254</t>
-  </si>
-  <si>
-    <t>1.0922    1.0922    7.5692    0.0254    0.0254</t>
-  </si>
-  <si>
     <t>0.2540    0.2540   15.0876    0.0254    0.0254</t>
   </si>
   <si>
     <t>0.2540    0.2540   15.5956    0.0254    0.0254</t>
+  </si>
+  <si>
+    <t>0.2540    0.2540   14.8336    0.0254    0.0254</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1170,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K5" sqref="K5:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,13 +1267,13 @@
         <v>15</v>
       </c>
       <c r="L5">
-        <v>2.3041999999999998</v>
+        <v>1.5219</v>
       </c>
       <c r="M5">
-        <v>435.27089999999998</v>
+        <v>287.48719999999997</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1296,13 +1293,13 @@
         <v>18</v>
       </c>
       <c r="L6">
-        <v>1.5553999999999999</v>
+        <v>1.3653999999999999</v>
       </c>
       <c r="M6">
-        <v>423.03750000000002</v>
+        <v>371.36329999999998</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1335,30 +1332,57 @@
       <c r="A9">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
       <c r="K9">
         <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
       <c r="K10">
         <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
       <c r="K11">
         <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
+      <c r="B12">
+        <v>3.0322</v>
+      </c>
+      <c r="C12">
+        <v>572.78650000000005</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
       <c r="K12">
         <v>15</v>
       </c>
@@ -1369,13 +1393,22 @@
         <v>597.25720000000001</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
+      <c r="B13">
+        <v>2.8767</v>
+      </c>
+      <c r="C13">
+        <v>782.40800000000002</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
       <c r="K13">
         <v>18</v>
       </c>
@@ -1386,7 +1419,7 @@
         <v>836.43100000000004</v>
       </c>
       <c r="O13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
